--- a/channel_route.xlsx
+++ b/channel_route.xlsx
@@ -35,7 +35,7 @@
     <t>route</t>
   </si>
   <si>
-    <t>nasscode</t>
+    <t>stops</t>
   </si>
   <si>
     <t>USPS120</t>
@@ -749,7 +749,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -762,10 +762,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1297,7 +1293,7 @@
   <dimension ref="A1:C995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5384615384615" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
@@ -1322,10 +1318,10 @@
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>120</v>
       </c>
     </row>
@@ -1333,10 +1329,10 @@
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1344,10 +1340,10 @@
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1355,10 +1351,10 @@
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1366,10 +1362,10 @@
       <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1377,10 +1373,10 @@
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1388,10 +1384,10 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>2</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1399,10 +1395,10 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1410,10 +1406,10 @@
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1421,10 +1417,10 @@
       <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>2</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1432,10 +1428,10 @@
       <c r="A12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="6">
         <v>240</v>
       </c>
     </row>
@@ -1443,10 +1439,10 @@
       <c r="A13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>3</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="6">
         <v>270</v>
       </c>
     </row>
@@ -1454,10 +1450,10 @@
       <c r="A14" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="6">
         <v>275</v>
       </c>
     </row>
@@ -1465,10 +1461,10 @@
       <c r="A15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>3</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1476,10 +1472,10 @@
       <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>3</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1487,10 +1483,10 @@
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1498,10 +1494,10 @@
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1509,10 +1505,10 @@
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>3</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="6">
         <v>296</v>
       </c>
     </row>
@@ -1520,10 +1516,10 @@
       <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>3</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="6">
         <v>296</v>
       </c>
     </row>

--- a/channel_route.xlsx
+++ b/channel_route.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>channel</t>
   </si>
@@ -38,7 +38,13 @@
     <t>stops</t>
   </si>
   <si>
+    <t>state</t>
+  </si>
+  <si>
     <t>USPS120</t>
+  </si>
+  <si>
+    <t>NY/NH</t>
   </si>
   <si>
     <t>USPS030</t>
@@ -54,6 +60,9 @@
   </si>
   <si>
     <t>184</t>
+  </si>
+  <si>
+    <t>PA</t>
   </si>
   <si>
     <t>USPS184</t>
@@ -83,6 +92,9 @@
     <t>USPS240</t>
   </si>
   <si>
+    <t>NC</t>
+  </si>
+  <si>
     <t>USPS270</t>
   </si>
   <si>
@@ -108,6 +120,9 @@
   </si>
   <si>
     <t>290</t>
+  </si>
+  <si>
+    <t>SC</t>
   </si>
   <si>
     <t>USPS296</t>
@@ -1290,20 +1305,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C995"/>
+  <dimension ref="A1:D995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5384615384615" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="13.5384615384615" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="13.5384615384615" style="1"/>
     <col min="3" max="3" width="13.5384615384615" style="2"/>
     <col min="4" max="16355" width="13.5384615384615" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1313,10 +1328,13 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A2" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
@@ -1324,109 +1342,139 @@
       <c r="C2" s="6">
         <v>120</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A4" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="5">
         <v>2</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A6" s="5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B12" s="5">
         <v>3</v>
@@ -1434,10 +1482,13 @@
       <c r="C12" s="6">
         <v>240</v>
       </c>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5">
         <v>3</v>
@@ -1445,10 +1496,13 @@
       <c r="C13" s="6">
         <v>270</v>
       </c>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5">
         <v>3</v>
@@ -1456,54 +1510,69 @@
       <c r="C14" s="6">
         <v>275</v>
       </c>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>3</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A17" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B17" s="5">
         <v>3</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A18" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5">
         <v>3</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A19" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B19" s="5">
         <v>3</v>
@@ -1511,10 +1580,13 @@
       <c r="C19" s="6">
         <v>296</v>
       </c>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D19" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="A20" s="5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -1522,41 +1594,44 @@
       <c r="C20" s="6">
         <v>296</v>
       </c>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:3">
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="C22" s="2"/>
     </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:3">
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:4">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="24" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C24" s="2"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="25" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C25" s="2"/>
     </row>
-    <row r="26" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="26" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C26" s="2"/>
     </row>
-    <row r="27" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="27" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="28" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="29" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C29" s="2"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="30" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="31" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="15.2" spans="1:3">
+    <row r="32" s="1" customFormat="1" ht="15.2" spans="1:4">
       <c r="C32" s="2"/>
     </row>
     <row r="33" s="1" customFormat="1" ht="15.2" spans="3:3">
